--- a/LearningNotes/机器学习模型.xlsx
+++ b/LearningNotes/机器学习模型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\资料\Github\ML\handson-ml2-master\practice\LearningNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5742A7D-4701-4998-864F-9A0BDF324D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC790E3B-85F3-4278-9639-2D6F779FC7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="1770" windowWidth="26025" windowHeight="12960" xr2:uid="{04FAFD3D-DEA9-46AE-BB08-722219BA50D4}"/>
+    <workbookView xWindow="1665" yWindow="3810" windowWidth="26025" windowHeight="12960" xr2:uid="{04FAFD3D-DEA9-46AE-BB08-722219BA50D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>模型名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效处理非常大的数据集</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -92,6 +88,42 @@
     <t>from sklearn.linear_model import SGDClassifier
 sgd_clf = SGDClassifier(random_state=42)
 sgd_clf.fit(X_train, y_train_5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机森林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接处理多个分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多分类情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朴素贝叶斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持向量机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二元分类器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二元分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类（线性分类器）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效处理非常大的数据集，二元分类器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,32 +148,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,20 +197,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,71 +526,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89B4381-B398-4749-AD79-5EF4E0F15DD6}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="23.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="19.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
